--- a/natmiOut/OldD2/LR-pairs_lrc2p/Artn-Gfra1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Artn-Gfra1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,13 +79,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Artn</t>
   </si>
   <si>
     <t>Gfra1</t>
   </si>
   <si>
-    <t>sCs</t>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -443,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.436210260601962</v>
+        <v>0.534048</v>
       </c>
       <c r="H2">
-        <v>0.436210260601962</v>
+        <v>1.602144</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.4424453651869046</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.5032206999227333</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>2.81400923213459</v>
+        <v>0.1058645</v>
       </c>
       <c r="N2">
-        <v>2.81400923213459</v>
+        <v>0.211729</v>
       </c>
       <c r="O2">
-        <v>0.2583363546629614</v>
+        <v>0.009133991451461643</v>
       </c>
       <c r="P2">
-        <v>0.2583363546629614</v>
+        <v>0.007982871865007578</v>
       </c>
       <c r="Q2">
-        <v>1.227499700485757</v>
+        <v>0.05653672449599999</v>
       </c>
       <c r="R2">
-        <v>1.227499700485757</v>
+        <v>0.339220346976</v>
       </c>
       <c r="S2">
-        <v>0.2583363546629614</v>
+        <v>0.004041292183356012</v>
       </c>
       <c r="T2">
-        <v>0.2583363546629614</v>
+        <v>0.004017146367302609</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,61 +587,681 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0.534048</v>
+      </c>
+      <c r="H3">
+        <v>1.602144</v>
+      </c>
+      <c r="I3">
+        <v>0.4424453651869046</v>
+      </c>
+      <c r="J3">
+        <v>0.5032206999227333</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>3.282732333333333</v>
+      </c>
+      <c r="N3">
+        <v>9.848196999999999</v>
+      </c>
+      <c r="O3">
+        <v>0.2832342198763835</v>
+      </c>
+      <c r="P3">
+        <v>0.3713090542738691</v>
+      </c>
+      <c r="Q3">
+        <v>1.753136637152</v>
+      </c>
+      <c r="R3">
+        <v>15.778229734368</v>
+      </c>
+      <c r="S3">
+        <v>0.1253156678466345</v>
+      </c>
+      <c r="T3">
+        <v>0.1868504021793446</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0.534048</v>
+      </c>
+      <c r="H4">
+        <v>1.602144</v>
+      </c>
+      <c r="I4">
+        <v>0.4424453651869046</v>
+      </c>
+      <c r="J4">
+        <v>0.5032206999227333</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.05984166666666666</v>
+      </c>
+      <c r="N4">
+        <v>0.179525</v>
+      </c>
+      <c r="O4">
+        <v>0.005163140351813407</v>
+      </c>
+      <c r="P4">
+        <v>0.00676867633420781</v>
+      </c>
+      <c r="Q4">
+        <v>0.0319583224</v>
+      </c>
+      <c r="R4">
+        <v>0.2876249016</v>
+      </c>
+      <c r="S4">
+        <v>0.002284407518469326</v>
+      </c>
+      <c r="T4">
+        <v>0.003406138042450495</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.534048</v>
+      </c>
+      <c r="H5">
+        <v>1.602144</v>
+      </c>
+      <c r="I5">
+        <v>0.4424453651869046</v>
+      </c>
+      <c r="J5">
+        <v>0.5032206999227333</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>8.141729999999999</v>
+      </c>
+      <c r="N5">
+        <v>16.28346</v>
+      </c>
+      <c r="O5">
+        <v>0.7024686483203415</v>
+      </c>
+      <c r="P5">
+        <v>0.6139393975269155</v>
+      </c>
+      <c r="Q5">
+        <v>4.34807462304</v>
+      </c>
+      <c r="R5">
+        <v>26.08844773824</v>
+      </c>
+      <c r="S5">
+        <v>0.3108039976384448</v>
+      </c>
+      <c r="T5">
+        <v>0.3089470133336356</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.2356576666666667</v>
+      </c>
+      <c r="H6">
+        <v>0.706973</v>
+      </c>
+      <c r="I6">
+        <v>0.1952364626165198</v>
+      </c>
+      <c r="J6">
+        <v>0.2220546017626846</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.5</v>
+      </c>
+      <c r="M6">
+        <v>0.1058645</v>
+      </c>
+      <c r="N6">
+        <v>0.211729</v>
+      </c>
+      <c r="O6">
+        <v>0.009133991451461643</v>
+      </c>
+      <c r="P6">
+        <v>0.007982871865007578</v>
+      </c>
+      <c r="Q6">
+        <v>0.02494778105283333</v>
+      </c>
+      <c r="R6">
+        <v>0.149686686317</v>
+      </c>
+      <c r="S6">
+        <v>0.001783288180552903</v>
+      </c>
+      <c r="T6">
+        <v>0.001772633432906797</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.2356576666666667</v>
+      </c>
+      <c r="H7">
+        <v>0.706973</v>
+      </c>
+      <c r="I7">
+        <v>0.1952364626165198</v>
+      </c>
+      <c r="J7">
+        <v>0.2220546017626846</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>3.282732333333333</v>
+      </c>
+      <c r="N7">
+        <v>9.848196999999999</v>
+      </c>
+      <c r="O7">
+        <v>0.2832342198763835</v>
+      </c>
+      <c r="P7">
+        <v>0.3713090542738691</v>
+      </c>
+      <c r="Q7">
+        <v>0.7736010419645555</v>
+      </c>
+      <c r="R7">
+        <v>6.962409377680999</v>
+      </c>
+      <c r="S7">
+        <v>0.0552976471806147</v>
+      </c>
+      <c r="T7">
+        <v>0.08245088417766305</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.2356576666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.706973</v>
+      </c>
+      <c r="I8">
+        <v>0.1952364626165198</v>
+      </c>
+      <c r="J8">
+        <v>0.2220546017626846</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.05984166666666666</v>
+      </c>
+      <c r="N8">
+        <v>0.179525</v>
+      </c>
+      <c r="O8">
+        <v>0.005163140351813407</v>
+      </c>
+      <c r="P8">
+        <v>0.00676867633420781</v>
+      </c>
+      <c r="Q8">
+        <v>0.01410214753611111</v>
+      </c>
+      <c r="R8">
+        <v>0.126919327825</v>
+      </c>
+      <c r="S8">
+        <v>0.001008033258280663</v>
+      </c>
+      <c r="T8">
+        <v>0.001503015727853023</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.2356576666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.706973</v>
+      </c>
+      <c r="I9">
+        <v>0.1952364626165198</v>
+      </c>
+      <c r="J9">
+        <v>0.2220546017626846</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>8.141729999999999</v>
+      </c>
+      <c r="N9">
+        <v>16.28346</v>
+      </c>
+      <c r="O9">
+        <v>0.7024686483203415</v>
+      </c>
+      <c r="P9">
+        <v>0.6139393975269155</v>
+      </c>
+      <c r="Q9">
+        <v>1.91866109443</v>
+      </c>
+      <c r="R9">
+        <v>11.51196656658</v>
+      </c>
+      <c r="S9">
+        <v>0.1371474939970715</v>
+      </c>
+      <c r="T9">
+        <v>0.1363280684242617</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>0.436210260601962</v>
-      </c>
-      <c r="H3">
-        <v>0.436210260601962</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>8.078802334421299</v>
-      </c>
-      <c r="N3">
-        <v>8.078802334421299</v>
-      </c>
-      <c r="O3">
-        <v>0.7416636453370387</v>
-      </c>
-      <c r="P3">
-        <v>0.7416636453370387</v>
-      </c>
-      <c r="Q3">
-        <v>3.524056471649654</v>
-      </c>
-      <c r="R3">
-        <v>3.524056471649654</v>
-      </c>
-      <c r="S3">
-        <v>0.7416636453370387</v>
-      </c>
-      <c r="T3">
-        <v>0.7416636453370387</v>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.5</v>
+      </c>
+      <c r="G10">
+        <v>0.4373315</v>
+      </c>
+      <c r="H10">
+        <v>0.874663</v>
+      </c>
+      <c r="I10">
+        <v>0.3623181721965756</v>
+      </c>
+      <c r="J10">
+        <v>0.274724698314582</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.5</v>
+      </c>
+      <c r="M10">
+        <v>0.1058645</v>
+      </c>
+      <c r="N10">
+        <v>0.211729</v>
+      </c>
+      <c r="O10">
+        <v>0.009133991451461643</v>
+      </c>
+      <c r="P10">
+        <v>0.007982871865007578</v>
+      </c>
+      <c r="Q10">
+        <v>0.04629788058174999</v>
+      </c>
+      <c r="R10">
+        <v>0.185191522327</v>
+      </c>
+      <c r="S10">
+        <v>0.003309411087552729</v>
+      </c>
+      <c r="T10">
+        <v>0.002193092064798172</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.5</v>
+      </c>
+      <c r="G11">
+        <v>0.4373315</v>
+      </c>
+      <c r="H11">
+        <v>0.874663</v>
+      </c>
+      <c r="I11">
+        <v>0.3623181721965756</v>
+      </c>
+      <c r="J11">
+        <v>0.274724698314582</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>3.282732333333333</v>
+      </c>
+      <c r="N11">
+        <v>9.848196999999999</v>
+      </c>
+      <c r="O11">
+        <v>0.2832342198763835</v>
+      </c>
+      <c r="P11">
+        <v>0.3713090542738691</v>
+      </c>
+      <c r="Q11">
+        <v>1.435642255435166</v>
+      </c>
+      <c r="R11">
+        <v>8.613853532611</v>
+      </c>
+      <c r="S11">
+        <v>0.1026209048491343</v>
+      </c>
+      <c r="T11">
+        <v>0.1020077679168615</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.5</v>
+      </c>
+      <c r="G12">
+        <v>0.4373315</v>
+      </c>
+      <c r="H12">
+        <v>0.874663</v>
+      </c>
+      <c r="I12">
+        <v>0.3623181721965756</v>
+      </c>
+      <c r="J12">
+        <v>0.274724698314582</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.05984166666666666</v>
+      </c>
+      <c r="N12">
+        <v>0.179525</v>
+      </c>
+      <c r="O12">
+        <v>0.005163140351813407</v>
+      </c>
+      <c r="P12">
+        <v>0.00676867633420781</v>
+      </c>
+      <c r="Q12">
+        <v>0.02617064584583333</v>
+      </c>
+      <c r="R12">
+        <v>0.157023875075</v>
+      </c>
+      <c r="S12">
+        <v>0.001870699575063418</v>
+      </c>
+      <c r="T12">
+        <v>0.001859522563904291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.5</v>
+      </c>
+      <c r="G13">
+        <v>0.4373315</v>
+      </c>
+      <c r="H13">
+        <v>0.874663</v>
+      </c>
+      <c r="I13">
+        <v>0.3623181721965756</v>
+      </c>
+      <c r="J13">
+        <v>0.274724698314582</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>8.141729999999999</v>
+      </c>
+      <c r="N13">
+        <v>16.28346</v>
+      </c>
+      <c r="O13">
+        <v>0.7024686483203415</v>
+      </c>
+      <c r="P13">
+        <v>0.6139393975269155</v>
+      </c>
+      <c r="Q13">
+        <v>3.560634993494999</v>
+      </c>
+      <c r="R13">
+        <v>14.24253997398</v>
+      </c>
+      <c r="S13">
+        <v>0.2545171566848252</v>
+      </c>
+      <c r="T13">
+        <v>0.1686643157690181</v>
       </c>
     </row>
   </sheetData>
